--- a/medicine/Mort/Vejrhøj/Vejrhøj.xlsx
+++ b/medicine/Mort/Vejrhøj/Vejrhøj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vejrh%C3%B8j</t>
+          <t>Vejrhøj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vejrhøj est une colline avec un grand tumulus funéraire, située près de la baie de Nekselø à Odsherredbuerne sur la Odsherred, au nord-ouest de la Zélande au Danemark. C'est le pic distinctif de la zone protégée de Bjergene.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vejrh%C3%B8j</t>
+          <t>Vejrhøj</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sommet du tumulus est à 121 mètres d'altitude. Cela en fait le troisième point le plus haut de la Zélande[1]. En excluant le tumulus, le point est d'environ 113 mètres d'altitude. La colline elle-même est l'une des collines avec la différence de hauteur la plus importante au Danemark[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sommet du tumulus est à 121 mètres d'altitude. Cela en fait le troisième point le plus haut de la Zélande. En excluant le tumulus, le point est d'environ 113 mètres d'altitude. La colline elle-même est l'une des collines avec la différence de hauteur la plus importante au Danemark.
 Le nom Vejrhøj fait référence à la fois à la colline et au tumulus. Vejrhøj donne également son nom à l'arche dite de Vejrhøj, qui est une très grande moraine marginale créée par une langue glaciaire pendant la période glaciaire.
-Sur Vejrhøj il y a un poste de triangulation[3].
+Sur Vejrhøj il y a un poste de triangulation.
 </t>
         </is>
       </c>
